--- a/data/trans_bre/P16A97-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A97-Provincia-trans_bre.xlsx
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,89; 17,4</t>
+          <t>3,27; 17,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 19,66</t>
+          <t>0,57; 20,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,07; 580,62</t>
+          <t>32,0; 676,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 166,39</t>
+          <t>0,67; 180,07</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 8,41</t>
+          <t>-1,01; 8,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,22; 22,97</t>
+          <t>8,01; 23,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,49; 15,48</t>
+          <t>1,18; 14,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 251,67</t>
+          <t>-17,22; 243,1</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>35,66; 180,95</t>
+          <t>42,88; 188,65</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,48; 163,94</t>
+          <t>8,28; 160,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,97; 17,17</t>
+          <t>3,68; 16,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,94; 31,57</t>
+          <t>10,25; 31,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 14,27</t>
+          <t>-3,57; 13,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>38,87; 521,46</t>
+          <t>35,56; 458,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>46,24; 204,28</t>
+          <t>41,0; 204,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-14,78; 119,96</t>
+          <t>-19,05; 115,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,01; 15,47</t>
+          <t>4,44; 14,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,27; 30,99</t>
+          <t>16,55; 31,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,79; 30,35</t>
+          <t>10,5; 29,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>49,29; 626,93</t>
+          <t>64,17; 576,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>66,78; 173,88</t>
+          <t>73,02; 173,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>42,51; 177,82</t>
+          <t>41,6; 175,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,59; 22,29</t>
+          <t>4,04; 21,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12,64; 39,13</t>
+          <t>12,7; 39,77</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,66; 26,07</t>
+          <t>6,9; 26,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>29,51; 609,17</t>
+          <t>35,71; 595,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>54,83; 324,47</t>
+          <t>64,63; 362,19</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>60,95; 587,52</t>
+          <t>55,83; 591,54</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 12,67</t>
+          <t>-1,12; 12,23</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,8; 30,42</t>
+          <t>8,57; 30,99</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,53; 23,72</t>
+          <t>3,83; 23,52</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-25,15; 468,65</t>
+          <t>-29,99; 593,32</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>23,36; 152,32</t>
+          <t>25,86; 149,79</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>17,59; 170,31</t>
+          <t>15,36; 176,03</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,81; 7,2</t>
+          <t>0,67; 7,23</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>12,77; 26,71</t>
+          <t>13,39; 27,17</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,58; 16,34</t>
+          <t>6,12; 16,76</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>11,94; 485,9</t>
+          <t>2,86; 495,95</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>55,58; 169,06</t>
+          <t>60,13; 180,15</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>74,02; 355,84</t>
+          <t>63,93; 363,78</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1368,17 +1368,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 6,04</t>
+          <t>-0,26; 6,32</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4,47; 15,07</t>
+          <t>4,41; 14,56</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,48; 14,62</t>
+          <t>3,4; 14,61</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1388,17 +1388,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-14,79; 226,52</t>
+          <t>-6,08; 240,46</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>27,94; 153,04</t>
+          <t>30,18; 140,83</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>21,83; 134,61</t>
+          <t>20,84; 134,47</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1468,17 +1468,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>4,1; 7,6</t>
+          <t>4,19; 7,55</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>14,47; 20,66</t>
+          <t>14,61; 20,66</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>8,43; 13,66</t>
+          <t>8,52; 13,55</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1488,17 +1488,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>81,11; 208,63</t>
+          <t>84,85; 204,92</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>76,17; 126,52</t>
+          <t>76,18; 125,47</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>61,28; 117,09</t>
+          <t>60,71; 115,06</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">

--- a/data/trans_bre/P16A97-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A97-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,27; 17,24</t>
+          <t>2,23; 16,92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,57; 20,06</t>
+          <t>-1,04; 19,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>32,0; 676,44</t>
+          <t>15,53; 672,43</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,67; 180,07</t>
+          <t>-6,51; 171,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 8,46</t>
+          <t>-0,49; 8,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,01; 23,37</t>
+          <t>7,57; 23,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,18; 14,67</t>
+          <t>1,43; 14,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-17,22; 243,1</t>
+          <t>-9,6; 237,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>42,88; 188,65</t>
+          <t>38,19; 185,3</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,28; 160,32</t>
+          <t>6,16; 156,14</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,68; 16,75</t>
+          <t>4,21; 16,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,25; 31,49</t>
+          <t>11,01; 31,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 13,42</t>
+          <t>-3,15; 13,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>35,56; 458,07</t>
+          <t>45,28; 472,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>41,0; 204,66</t>
+          <t>45,55; 215,92</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-19,05; 115,1</t>
+          <t>-18,79; 116,96</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,44; 14,84</t>
+          <t>4,44; 15,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,55; 31,07</t>
+          <t>16,7; 30,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,5; 29,86</t>
+          <t>10,38; 30,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>64,17; 576,61</t>
+          <t>66,73; 597,18</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>73,02; 173,54</t>
+          <t>69,53; 172,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>41,6; 175,55</t>
+          <t>42,4; 184,9</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,04; 21,92</t>
+          <t>4,92; 23,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12,7; 39,77</t>
+          <t>11,93; 38,59</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,9; 26,34</t>
+          <t>7,25; 25,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>35,71; 595,85</t>
+          <t>43,02; 720,23</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>64,63; 362,19</t>
+          <t>56,81; 354,44</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>55,83; 591,54</t>
+          <t>53,86; 568,29</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 12,23</t>
+          <t>-1,32; 11,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,57; 30,99</t>
+          <t>7,95; 31,15</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,83; 23,52</t>
+          <t>3,36; 23,55</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-29,99; 593,32</t>
+          <t>-34,62; 445,25</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>25,86; 149,79</t>
+          <t>26,13; 158,28</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>15,36; 176,03</t>
+          <t>15,22; 182,6</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,67; 7,23</t>
+          <t>0,71; 7,06</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>13,39; 27,17</t>
+          <t>13,32; 26,9</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,12; 16,76</t>
+          <t>6,34; 16,58</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,86; 495,95</t>
+          <t>3,26; 522,42</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>60,13; 180,15</t>
+          <t>59,08; 163,41</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>63,93; 363,78</t>
+          <t>68,19; 350,98</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1368,17 +1368,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 6,32</t>
+          <t>-0,31; 6,05</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4,41; 14,56</t>
+          <t>4,7; 14,51</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,4; 14,61</t>
+          <t>3,76; 14,81</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1388,17 +1388,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 240,46</t>
+          <t>-8,26; 214,4</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>30,18; 140,83</t>
+          <t>33,24; 142,48</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>20,84; 134,47</t>
+          <t>22,84; 128,63</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1468,17 +1468,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>4,19; 7,55</t>
+          <t>4,17; 7,69</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>14,61; 20,66</t>
+          <t>14,37; 20,55</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>8,52; 13,55</t>
+          <t>8,4; 13,52</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1488,17 +1488,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>84,85; 204,92</t>
+          <t>84,86; 214,75</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>76,18; 125,47</t>
+          <t>76,04; 125,45</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>60,71; 115,06</t>
+          <t>59,94; 115,81</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
